--- a/STM32 GPS Tracker BOM EXCEL.xlsx
+++ b/STM32 GPS Tracker BOM EXCEL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91755\Documents\PCB Design\STM32 GPS Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39D4FC33-6C30-429B-A5F8-9727E9E32F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3307E4A8-75C2-4FF6-A5E2-AE1E6C0268C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{8CCB906A-489E-4FF3-B6D2-B17919215173}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="133">
   <si>
     <t>Id</t>
   </si>
@@ -342,6 +342,111 @@
   </si>
   <si>
     <t>22p</t>
+  </si>
+  <si>
+    <t>Supplier and ref</t>
+  </si>
+  <si>
+    <t>DigiKey: 732-3814-2-ND (MFR: Würth 693010020611)</t>
+  </si>
+  <si>
+    <t>DigiKey: 497-14043-ND (MFR: STMicroelectronics STM32F030C8T6)</t>
+  </si>
+  <si>
+    <t>DigiKey: 785-1006-2-ND (MFR: Alpha &amp; Omega Semiconductor Inc. AO3407A)</t>
+  </si>
+  <si>
+    <t>DigiKey: 296-19447-5-ND (MFR: Texas Instruments TPS5430DDA)</t>
+  </si>
+  <si>
+    <t>DigiKey: 311-10.0KLRTR-ND (MFR: YAGEO RC0402FR-0710KL)</t>
+  </si>
+  <si>
+    <t>Mouser: 603-SR0805FR-471K5L (MFR: YAGEO SR0805FR-471K5L)</t>
+  </si>
+  <si>
+    <t>Mouser: 603-SR0805FR-472K7L (MFR: YAGEO SR0805FR-472K7L)</t>
+  </si>
+  <si>
+    <t>Mouser: 963-AMK316ABJ107ML-T (MFR: TAIYO YUDEN AMK316ABJ107ML-T)</t>
+  </si>
+  <si>
+    <t>Mouser: 963-T063SB7102KFCA1J (MFR: TAIYO YUDEN MCAST063SB7102KFCA1J)</t>
+  </si>
+  <si>
+    <t>Mouser: 652-SF-0402S080-2 (MFR: Bourns SF-0402S080-2)</t>
+  </si>
+  <si>
+    <t>Mouser: 603-RC0201BR-07100KL (MFR: YAGEO RC0201BR-07100KL)</t>
+  </si>
+  <si>
+    <t>Mouser: 963-MBAST105SB7104KF (MFR: TAIYO YUDEN MBAST105SB7104KFNA18)</t>
+  </si>
+  <si>
+    <t>Mouser: 437-1508031801899161 (MFR: Preci-dip 150-80-318-01-899161)</t>
+  </si>
+  <si>
+    <t>Mouser: 651-1891519 (MFR: Phoenix Contact 1891519)</t>
+  </si>
+  <si>
+    <t>Mouser: 652-CRT0603PW1001ELF (MFR: Bourns CRT0603-PW-1001ELF)</t>
+  </si>
+  <si>
+    <t>Mouser: 77-VJ0402D300FXAAJ (MFR: Vishay / Vitramon VJ0402D300FXAAJ)</t>
+  </si>
+  <si>
+    <t>Mouser: 611-KSC623JLFG (MFR: C&amp;K KSC623J LFG)</t>
+  </si>
+  <si>
+    <t>Mouser: 743-IN-S21AT5UW (MFR: Inolux IN-S21AT5UW)</t>
+  </si>
+  <si>
+    <t>Mouser: 71-CRCW08058K20FHEAP (MFR: Vishay CRCW08058K20FHEAP)</t>
+  </si>
+  <si>
+    <t>Mouser: 963-EMK212BB7106KG-T (MFR: TAIYO YUDEN EMK212BB7106KG-T)</t>
+  </si>
+  <si>
+    <t>Mouser: 963-MMASU105SCH100CF (MFR: TAIYO YUDEN MMASU105SCH100CF)</t>
+  </si>
+  <si>
+    <t>Mouser: 963-BASL105SB5105KF (MFR: TAIYO YUDEN MBASL105SB5105KF)</t>
+  </si>
+  <si>
+    <t>Mouser: 652-CRT0402FV4701GLF (MFR: Bourns CRT0402-FV-4701GLF)</t>
+  </si>
+  <si>
+    <t>Mouser: 963-UMK105CG220JV-F (MFR: TAIYO YUDEN UMK105CG220JV-F)</t>
+  </si>
+  <si>
+    <t>Mouser: 963-UMK105CG330KV-F (MFR: TAIYO YUDEN UMK105CG330KV-F)</t>
+  </si>
+  <si>
+    <t>Mouser: 963-PMK063EBJ475MP-F (MFR: TAIYO YUDEN PMK063EBJ475MP-F)</t>
+  </si>
+  <si>
+    <t>Mouser: 810-MLF2012C150KT000 (MFR: TDK MLF2012C150KT000)</t>
+  </si>
+  <si>
+    <t>Mouser: 621-B340-F (MFR: Diodes Incorporated B340-13-F)</t>
+  </si>
+  <si>
+    <t>Mouser: 70-XT3518HGRGX8M000E (MFR: Vishay / Dale XT3518HGRGX8M000E)</t>
+  </si>
+  <si>
+    <t>Mouser: 80-T494X227M016 (MFR: KEMET 80-T494X227M016AT)</t>
+  </si>
+  <si>
+    <t>Mouser: 863-SMF05CT1G (MFR: onsemi SMF05CT1G)</t>
+  </si>
+  <si>
+    <t>Seed Studio: SKU 113990112 (MFR: SIMCom S2-1060C-Z1F02)</t>
+  </si>
+  <si>
+    <t>Mouser: 798-UFLRSMT101 (MFR: Hirose Connector U.FL-R-SMT-1(01))</t>
+  </si>
+  <si>
+    <t>Mouser: 821-BZY55B13RBG (MFR: Taiwan Semiconductor BZY55B13RBG)</t>
   </si>
 </sst>
 </file>
@@ -384,7 +489,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -409,13 +517,14 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{C894B472-5AD5-4443-888B-2DCA18D6DAE9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="9">
-    <queryTableFields count="5">
+  <queryTableRefresh nextId="10" unboundColumnsRight="1">
+    <queryTableFields count="6">
       <queryTableField id="1" name="Id" tableColumnId="1"/>
       <queryTableField id="2" name="Designator" tableColumnId="2"/>
       <queryTableField id="3" name="Footprint" tableColumnId="3"/>
       <queryTableField id="4" name="Quantity" tableColumnId="4"/>
       <queryTableField id="5" name="Designation" tableColumnId="5"/>
+      <queryTableField id="9" dataBound="0" tableColumnId="6"/>
     </queryTableFields>
     <queryTableDeletedFields count="3">
       <deletedField name="Supplier and ref"/>
@@ -427,14 +536,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C318FE1E-11B3-4010-9553-A17601BC5370}" name="STM32_GPS_Tracker_BOM" displayName="STM32_GPS_Tracker_BOM" ref="A1:E36" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E36" xr:uid="{C318FE1E-11B3-4010-9553-A17601BC5370}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C318FE1E-11B3-4010-9553-A17601BC5370}" name="STM32_GPS_Tracker_BOM" displayName="STM32_GPS_Tracker_BOM" ref="A1:F36" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F36" xr:uid="{C318FE1E-11B3-4010-9553-A17601BC5370}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{ED36FD2B-26DE-4D46-A172-8AD535F885B5}" uniqueName="1" name="Id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{B5E2B64A-0792-49FC-B521-556C47C1811F}" uniqueName="2" name="Designator" queryTableFieldId="2" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{2DD9EC6F-5D55-4D9B-8DE9-DF4EC9772D93}" uniqueName="3" name="Footprint" queryTableFieldId="3" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{B5E2B64A-0792-49FC-B521-556C47C1811F}" uniqueName="2" name="Designator" queryTableFieldId="2" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{2DD9EC6F-5D55-4D9B-8DE9-DF4EC9772D93}" uniqueName="3" name="Footprint" queryTableFieldId="3" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{ECDAC921-A086-41BB-B138-DDE1E1C51F6A}" uniqueName="4" name="Quantity" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{B1324A34-61A3-46A2-B6C3-DC6F9F44EF76}" uniqueName="5" name="Designation" queryTableFieldId="5" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{B1324A34-61A3-46A2-B6C3-DC6F9F44EF76}" uniqueName="5" name="Designation" queryTableFieldId="5" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{975C5A98-67D2-4A7D-89E8-7FDA39E90A8A}" uniqueName="6" name="Supplier and ref" queryTableFieldId="9" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -757,10 +867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8CB9B3-8227-4067-8DD6-9D1B4A62B42C}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,10 +880,10 @@
     <col min="3" max="3" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="71.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -789,600 +899,708 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>17</v>
       </c>
       <c r="D6">
         <v>6</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>20</v>
       </c>
       <c r="D7">
         <v>4</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>20</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>25</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>28</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>31</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>34</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>37</v>
       </c>
       <c r="D13">
         <v>6</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>40</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>43</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>46</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>37</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>51</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>54</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>20</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>40</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>61</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>37</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>66</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>69</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>28</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>74</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>77</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>80</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>83</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>86</v>
       </c>
       <c r="D31">
         <v>2</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
         <v>37</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
         <v>17</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
         <v>92</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
         <v>37</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s">
         <v>37</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" t="s">
         <v>97</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
